--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Amelx-Lamp1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Amelx-Lamp1.xlsx
@@ -528,52 +528,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.06537097915611</v>
+        <v>1.141592333333333</v>
       </c>
       <c r="H2">
-        <v>1.06537097915611</v>
+        <v>3.424777</v>
       </c>
       <c r="I2">
-        <v>0.5718299433042771</v>
+        <v>0.5720393989604073</v>
       </c>
       <c r="J2">
-        <v>0.5718299433042771</v>
+        <v>0.5720393989604073</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>87.95583045944279</v>
+        <v>122.298789</v>
       </c>
       <c r="N2">
-        <v>87.95583045944279</v>
+        <v>366.8963669999999</v>
       </c>
       <c r="O2">
-        <v>0.3525292461002119</v>
+        <v>0.4294659933718775</v>
       </c>
       <c r="P2">
-        <v>0.3525292461002119</v>
+        <v>0.4294659933718776</v>
       </c>
       <c r="Q2">
-        <v>93.70558921906536</v>
+        <v>139.615359898351</v>
       </c>
       <c r="R2">
-        <v>93.70558921906536</v>
+        <v>1256.538239085159</v>
       </c>
       <c r="S2">
-        <v>0.2015867788105837</v>
+        <v>0.2456714687223831</v>
       </c>
       <c r="T2">
-        <v>0.2015867788105837</v>
+        <v>0.2456714687223831</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.06537097915611</v>
+        <v>1.141592333333333</v>
       </c>
       <c r="H3">
-        <v>1.06537097915611</v>
+        <v>3.424777</v>
       </c>
       <c r="I3">
-        <v>0.5718299433042771</v>
+        <v>0.5720393989604073</v>
       </c>
       <c r="J3">
-        <v>0.5718299433042771</v>
+        <v>0.5720393989604073</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>118.708370564943</v>
+        <v>119.3038053333333</v>
       </c>
       <c r="N3">
-        <v>118.708370564943</v>
+        <v>357.911416</v>
       </c>
       <c r="O3">
-        <v>0.4757862231809692</v>
+        <v>0.4189487703800985</v>
       </c>
       <c r="P3">
-        <v>0.4757862231809692</v>
+        <v>0.4189487703800985</v>
       </c>
       <c r="Q3">
-        <v>126.4684529827997</v>
+        <v>136.1963095060258</v>
       </c>
       <c r="R3">
-        <v>126.4684529827997</v>
+        <v>1225.766785554232</v>
       </c>
       <c r="S3">
-        <v>0.2720688090265297</v>
+        <v>0.2396552028034332</v>
       </c>
       <c r="T3">
-        <v>0.2720688090265297</v>
+        <v>0.2396552028034333</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.06537097915611</v>
+        <v>1.141592333333333</v>
       </c>
       <c r="H4">
-        <v>1.06537097915611</v>
+        <v>3.424777</v>
       </c>
       <c r="I4">
-        <v>0.5718299433042771</v>
+        <v>0.5720393989604073</v>
       </c>
       <c r="J4">
-        <v>0.5718299433042771</v>
+        <v>0.5720393989604073</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>42.8351850051069</v>
+        <v>43.16684233333334</v>
       </c>
       <c r="N4">
-        <v>42.8351850051069</v>
+        <v>129.500527</v>
       </c>
       <c r="O4">
-        <v>0.1716845307188189</v>
+        <v>0.1515852362480238</v>
       </c>
       <c r="P4">
-        <v>0.1716845307188189</v>
+        <v>0.1515852362480239</v>
       </c>
       <c r="Q4">
-        <v>45.63536299122386</v>
+        <v>49.27893626194211</v>
       </c>
       <c r="R4">
-        <v>45.63536299122386</v>
+        <v>443.510426357479</v>
       </c>
       <c r="S4">
-        <v>0.09817435546716363</v>
+        <v>0.08671272743459091</v>
       </c>
       <c r="T4">
-        <v>0.09817435546716363</v>
+        <v>0.08671272743459092</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.797719598087786</v>
+        <v>0.8540610000000001</v>
       </c>
       <c r="H5">
-        <v>0.797719598087786</v>
+        <v>2.562183</v>
       </c>
       <c r="I5">
-        <v>0.4281700566957229</v>
+        <v>0.4279606010395928</v>
       </c>
       <c r="J5">
-        <v>0.4281700566957229</v>
+        <v>0.4279606010395928</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>87.95583045944279</v>
+        <v>122.298789</v>
       </c>
       <c r="N5">
-        <v>87.95583045944279</v>
+        <v>366.8963669999999</v>
       </c>
       <c r="O5">
-        <v>0.3525292461002119</v>
+        <v>0.4294659933718775</v>
       </c>
       <c r="P5">
-        <v>0.3525292461002119</v>
+        <v>0.4294659933718776</v>
       </c>
       <c r="Q5">
-        <v>70.16408972358415</v>
+        <v>104.450626032129</v>
       </c>
       <c r="R5">
-        <v>70.16408972358415</v>
+        <v>940.0556342891609</v>
       </c>
       <c r="S5">
-        <v>0.1509424672896282</v>
+        <v>0.1837945246494945</v>
       </c>
       <c r="T5">
-        <v>0.1509424672896282</v>
+        <v>0.1837945246494945</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.797719598087786</v>
+        <v>0.8540610000000001</v>
       </c>
       <c r="H6">
-        <v>0.797719598087786</v>
+        <v>2.562183</v>
       </c>
       <c r="I6">
-        <v>0.4281700566957229</v>
+        <v>0.4279606010395928</v>
       </c>
       <c r="J6">
-        <v>0.4281700566957229</v>
+        <v>0.4279606010395928</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>118.708370564943</v>
+        <v>119.3038053333333</v>
       </c>
       <c r="N6">
-        <v>118.708370564943</v>
+        <v>357.911416</v>
       </c>
       <c r="O6">
-        <v>0.4757862231809692</v>
+        <v>0.4189487703800985</v>
       </c>
       <c r="P6">
-        <v>0.4757862231809692</v>
+        <v>0.4189487703800985</v>
       </c>
       <c r="Q6">
-        <v>94.69599365672229</v>
+        <v>101.892727286792</v>
       </c>
       <c r="R6">
-        <v>94.69599365672229</v>
+        <v>917.0345455811281</v>
       </c>
       <c r="S6">
-        <v>0.2037174141544394</v>
+        <v>0.1792935675766653</v>
       </c>
       <c r="T6">
-        <v>0.2037174141544394</v>
+        <v>0.1792935675766653</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.797719598087786</v>
+        <v>0.8540610000000001</v>
       </c>
       <c r="H7">
-        <v>0.797719598087786</v>
+        <v>2.562183</v>
       </c>
       <c r="I7">
-        <v>0.4281700566957229</v>
+        <v>0.4279606010395928</v>
       </c>
       <c r="J7">
-        <v>0.4281700566957229</v>
+        <v>0.4279606010395928</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>42.8351850051069</v>
+        <v>43.16684233333334</v>
       </c>
       <c r="N7">
-        <v>42.8351850051069</v>
+        <v>129.500527</v>
       </c>
       <c r="O7">
-        <v>0.1716845307188189</v>
+        <v>0.1515852362480238</v>
       </c>
       <c r="P7">
-        <v>0.1716845307188189</v>
+        <v>0.1515852362480239</v>
       </c>
       <c r="Q7">
-        <v>34.17046656628983</v>
+        <v>36.867116530049</v>
       </c>
       <c r="R7">
-        <v>34.17046656628983</v>
+        <v>331.804048770441</v>
       </c>
       <c r="S7">
-        <v>0.07351017525165528</v>
+        <v>0.06487250881343294</v>
       </c>
       <c r="T7">
-        <v>0.07351017525165528</v>
+        <v>0.06487250881343296</v>
       </c>
     </row>
   </sheetData>
